--- a/qspautomationproject/Data/ActiTimeCrendns.xlsx
+++ b/qspautomationproject/Data/ActiTimeCrendns.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2448" windowWidth="16920" windowHeight="5448" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2448" windowWidth="14520" windowHeight="5580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="validcreds" sheetId="1" r:id="rId1"/>
@@ -443,7 +443,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
